--- a/MM-Init-Menu/ig/StructureDefinition-FrInpatientMedicationRequest2.xlsx
+++ b/MM-Init-Menu/ig/StructureDefinition-FrInpatientMedicationRequest2.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-11T12:48:13+00:00</t>
+    <t>2024-08-01T16:27:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
